--- a/biology/Histoire de la zoologie et de la botanique/Josef_Helmut_Reichholf/Josef_Helmut_Reichholf.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Josef_Helmut_Reichholf/Josef_Helmut_Reichholf.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Josef Helmut Reichholf est un  zoologiste, écologue, spécialiste de l'évolution, né à 
 Aigen am Inn, en Bavière
@@ -512,7 +524,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Après avoir fait ses études en Bavière et passé un an au Brésil, Josef Helmut Reichholf, enseigne la zoologie à l'université  Munich.
 En 1970, fait partie des fondateurs à Munich du Groupe de l'écologie avec Bernhard Grzimek, Horst Stern et Hubert Weinzierl.
@@ -546,7 +560,9 @@
           <t>Principales Œuvres traduites en français</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>L’émergence de l’Homme, l’apparition de l’homme et ses rapports avec la nature, 1990 ; trad. fr. éd. Flammarion, 1991 ; éd. Flammarion, coll. Champs n°273, 1993. Titre original: Das Rätsel der Menschwerdung: Die Entstehung des Menschen im Wechselspiel der Natur.
 L’émancipation de la vie, 1992 ; trad. de l'allemand par Jeanne Etoré, éd. Flammarion, 1993 ; éd. Flammarion, coll. Champs n°344 (1996) et 870 (2009); préf. Albert Jacquard. Titre original: Der schopferische Impuls Eine neue Sicht der Evolution.
